--- a/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9783755575920727</v>
+        <v>1.004549703952033</v>
       </c>
       <c r="D2">
-        <v>0.9996275765548206</v>
+        <v>1.020607171044947</v>
       </c>
       <c r="E2">
-        <v>0.9870536195592174</v>
+        <v>1.009886119590803</v>
       </c>
       <c r="F2">
-        <v>0.9540448685029359</v>
+        <v>0.981645326397694</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032682210811763</v>
+        <v>1.0421318469705</v>
       </c>
       <c r="J2">
-        <v>1.001222866317796</v>
+        <v>1.026595180531047</v>
       </c>
       <c r="K2">
-        <v>1.01109210226692</v>
+        <v>1.031786690505275</v>
       </c>
       <c r="L2">
-        <v>0.9986963140260409</v>
+        <v>1.021209422022363</v>
       </c>
       <c r="M2">
-        <v>0.9661838615341672</v>
+        <v>0.9933664353135014</v>
       </c>
       <c r="N2">
-        <v>1.002644717629835</v>
+        <v>1.028053063439515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9872275655922645</v>
+        <v>1.011391458999646</v>
       </c>
       <c r="D3">
-        <v>1.006344567685046</v>
+        <v>1.025886262575443</v>
       </c>
       <c r="E3">
-        <v>0.9944725405592055</v>
+        <v>1.015561451180327</v>
       </c>
       <c r="F3">
-        <v>0.9659139621758884</v>
+        <v>0.9912498971480598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035368108602088</v>
+        <v>1.044625880893775</v>
       </c>
       <c r="J3">
-        <v>1.008072581387739</v>
+        <v>1.031576326061662</v>
       </c>
       <c r="K3">
-        <v>1.016896907161057</v>
+        <v>1.036198300417423</v>
       </c>
       <c r="L3">
-        <v>1.005176638254914</v>
+        <v>1.025999018106607</v>
       </c>
       <c r="M3">
-        <v>0.9770023936235626</v>
+        <v>1.001995975161343</v>
       </c>
       <c r="N3">
-        <v>1.009504160080851</v>
+        <v>1.033041282768128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9927359049825685</v>
+        <v>1.015683434438683</v>
       </c>
       <c r="D4">
-        <v>1.010526725595579</v>
+        <v>1.029200176664029</v>
       </c>
       <c r="E4">
-        <v>0.99909557855982</v>
+        <v>1.019127185955299</v>
       </c>
       <c r="F4">
-        <v>0.9732843631963339</v>
+        <v>0.9972637603478787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03702477607394</v>
+        <v>1.046178452964122</v>
       </c>
       <c r="J4">
-        <v>1.012327270170154</v>
+        <v>1.03469429018099</v>
       </c>
       <c r="K4">
-        <v>1.020499741060054</v>
+        <v>1.038958505683407</v>
       </c>
       <c r="L4">
-        <v>1.009204931421691</v>
+        <v>1.029000116044831</v>
       </c>
       <c r="M4">
-        <v>0.9837162875439434</v>
+        <v>1.007395321941422</v>
       </c>
       <c r="N4">
-        <v>1.013764891009356</v>
+        <v>1.036163674754141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.995002863512147</v>
+        <v>1.017457264851333</v>
       </c>
       <c r="D5">
-        <v>1.012248302648188</v>
+        <v>1.030570235115556</v>
       </c>
       <c r="E5">
-        <v>1.000999612867591</v>
+        <v>1.020602107564759</v>
       </c>
       <c r="F5">
-        <v>0.9763147075054001</v>
+        <v>0.9997470227241086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03770297936593</v>
+        <v>1.046817197882979</v>
       </c>
       <c r="J5">
-        <v>1.014076406979264</v>
+        <v>1.03598125644589</v>
       </c>
       <c r="K5">
-        <v>1.021980164595614</v>
+        <v>1.040097477320261</v>
       </c>
       <c r="L5">
-        <v>1.01086169065598</v>
+        <v>1.030239552399835</v>
       </c>
       <c r="M5">
-        <v>0.9864756373400789</v>
+        <v>1.009623825039971</v>
       </c>
       <c r="N5">
-        <v>1.015516511793364</v>
+        <v>1.037452468658754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9953807396024702</v>
+        <v>1.017753359434207</v>
       </c>
       <c r="D6">
-        <v>1.012535289505056</v>
+        <v>1.030798954705497</v>
       </c>
       <c r="E6">
-        <v>1.001317073746327</v>
+        <v>1.020848377910643</v>
       </c>
       <c r="F6">
-        <v>0.9768196777714385</v>
+        <v>1.000161422235117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037815814266161</v>
+        <v>1.046923646853182</v>
       </c>
       <c r="J6">
-        <v>1.014367856313374</v>
+        <v>1.036195983673577</v>
       </c>
       <c r="K6">
-        <v>1.02222679513637</v>
+        <v>1.040287492080377</v>
       </c>
       <c r="L6">
-        <v>1.011137787552649</v>
+        <v>1.030446390441132</v>
       </c>
       <c r="M6">
-        <v>0.9869353845067386</v>
+        <v>1.009995650214256</v>
       </c>
       <c r="N6">
-        <v>1.015808375018959</v>
+        <v>1.037667500823734</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9927663830409783</v>
+        <v>1.015707254058774</v>
       </c>
       <c r="D7">
-        <v>1.010549869870456</v>
+        <v>1.029218572614032</v>
       </c>
       <c r="E7">
-        <v>0.9991211718193242</v>
+        <v>1.019146986913769</v>
       </c>
       <c r="F7">
-        <v>0.9733251153404477</v>
+        <v>0.9972971145820847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037033908523286</v>
+        <v>1.046187041859779</v>
       </c>
       <c r="J7">
-        <v>1.012350793899068</v>
+        <v>1.034711578607457</v>
       </c>
       <c r="K7">
-        <v>1.020519653896094</v>
+        <v>1.038973807353981</v>
       </c>
       <c r="L7">
-        <v>1.009227210072721</v>
+        <v>1.02901676320256</v>
       </c>
       <c r="M7">
-        <v>0.9837533996931856</v>
+        <v>1.007425258413863</v>
       </c>
       <c r="N7">
-        <v>1.013788448144664</v>
+        <v>1.036180987732157</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9814150210757558</v>
+        <v>1.006891032569105</v>
       </c>
       <c r="D8">
-        <v>1.001933342387233</v>
+        <v>1.022413213509426</v>
       </c>
       <c r="E8">
-        <v>0.9895995547191921</v>
+        <v>1.011827078488174</v>
       </c>
       <c r="F8">
-        <v>0.9581240527035927</v>
+        <v>0.9849348311936155</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033607523070654</v>
+        <v>1.042987840353205</v>
       </c>
       <c r="J8">
-        <v>1.003576421823458</v>
+        <v>1.028301211692271</v>
       </c>
       <c r="K8">
-        <v>1.013087188855175</v>
+        <v>1.033297906642794</v>
       </c>
       <c r="L8">
-        <v>1.000922274365847</v>
+        <v>1.022849192690827</v>
       </c>
       <c r="M8">
-        <v>0.969902814172273</v>
+        <v>0.9963228122124272</v>
       </c>
       <c r="N8">
-        <v>1.005001615454272</v>
+        <v>1.029761517360672</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9595322063000785</v>
+        <v>0.990229319886515</v>
       </c>
       <c r="D9">
-        <v>0.9853511007820293</v>
+        <v>1.009574281058722</v>
       </c>
       <c r="E9">
-        <v>0.9713047534161181</v>
+        <v>0.998041781815144</v>
       </c>
       <c r="F9">
-        <v>0.9286492956997053</v>
+        <v>0.9614524112958298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026884397836119</v>
+        <v>1.036846123254122</v>
       </c>
       <c r="J9">
-        <v>0.9865996257731169</v>
+        <v>1.016131887514877</v>
       </c>
       <c r="K9">
-        <v>0.9986864031726446</v>
+        <v>1.02251390887763</v>
       </c>
       <c r="L9">
-        <v>0.9848812051689142</v>
+        <v>1.011166709840883</v>
       </c>
       <c r="M9">
-        <v>0.9430167760924227</v>
+        <v>0.9752034718901844</v>
       </c>
       <c r="N9">
-        <v>0.9880007104062738</v>
+        <v>1.017574911347104</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9433436700569733</v>
+        <v>0.9782179981961644</v>
       </c>
       <c r="D10">
-        <v>0.973117963507796</v>
+        <v>1.000340867646424</v>
       </c>
       <c r="E10">
-        <v>0.9578242474407149</v>
+        <v>0.9881434143610996</v>
       </c>
       <c r="F10">
-        <v>0.9066491583210813</v>
+        <v>0.9443971968883734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021835714578033</v>
+        <v>1.032356240506663</v>
       </c>
       <c r="J10">
-        <v>0.9740005892216891</v>
+        <v>1.007323299799734</v>
       </c>
       <c r="K10">
-        <v>0.9879901578353709</v>
+        <v>1.014703970348797</v>
       </c>
       <c r="L10">
-        <v>0.9729991707412168</v>
+        <v>1.002730094584184</v>
       </c>
       <c r="M10">
-        <v>0.9229366088342676</v>
+        <v>0.9598485925691707</v>
       </c>
       <c r="N10">
-        <v>0.9753837817778129</v>
+        <v>1.008753814427047</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9358568722639716</v>
+        <v>0.9727635886675376</v>
       </c>
       <c r="D11">
-        <v>0.9674725623560213</v>
+        <v>0.9961548821588815</v>
       </c>
       <c r="E11">
-        <v>0.9516059231970934</v>
+        <v>0.9836594534983063</v>
       </c>
       <c r="F11">
-        <v>0.8964042723398676</v>
+        <v>0.9366094271960393</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019484547133703</v>
+        <v>1.030303224959126</v>
       </c>
       <c r="J11">
-        <v>0.9681649372090001</v>
+        <v>1.003315032105963</v>
       </c>
       <c r="K11">
-        <v>0.98303512238645</v>
+        <v>1.011149677907054</v>
       </c>
       <c r="L11">
-        <v>0.9675020696571278</v>
+        <v>0.9988962510113436</v>
       </c>
       <c r="M11">
-        <v>0.913585458262406</v>
+        <v>0.9528347161248116</v>
       </c>
       <c r="N11">
-        <v>0.9695398424699074</v>
+        <v>1.004739854533396</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9329936785854778</v>
+        <v>0.9706955741370225</v>
       </c>
       <c r="D12">
-        <v>0.965315807731952</v>
+        <v>0.9945689930021411</v>
       </c>
       <c r="E12">
-        <v>0.9492305874957682</v>
+        <v>0.9819611761197889</v>
       </c>
       <c r="F12">
-        <v>0.8924730359834842</v>
+        <v>0.9336489647713868</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018583097740919</v>
+        <v>1.029522772416374</v>
       </c>
       <c r="J12">
-        <v>0.9659319044404717</v>
+        <v>1.001794097935034</v>
       </c>
       <c r="K12">
-        <v>0.9811390994064717</v>
+        <v>1.0098009874853</v>
       </c>
       <c r="L12">
-        <v>0.965399668889912</v>
+        <v>0.9974423283339312</v>
       </c>
       <c r="M12">
-        <v>0.9099974121040632</v>
+        <v>0.9501681983368735</v>
       </c>
       <c r="N12">
-        <v>0.9673036385387151</v>
+        <v>1.003216760461491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9336117623260842</v>
+        <v>0.9711411406200949</v>
       </c>
       <c r="D13">
-        <v>0.9657812832530425</v>
+        <v>0.9949106253099169</v>
       </c>
       <c r="E13">
-        <v>0.9497432262602256</v>
+        <v>0.9823269968209769</v>
       </c>
       <c r="F13">
-        <v>0.8933223283856225</v>
+        <v>0.9342871886749168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018777795802007</v>
+        <v>1.029691017676427</v>
       </c>
       <c r="J13">
-        <v>0.9664140114307677</v>
+        <v>1.002121847239053</v>
       </c>
       <c r="K13">
-        <v>0.9815484422945904</v>
+        <v>1.010091619495692</v>
       </c>
       <c r="L13">
-        <v>0.9658535217445782</v>
+        <v>0.9977555990120139</v>
       </c>
       <c r="M13">
-        <v>0.9107725464384545</v>
+        <v>0.9507430615923388</v>
       </c>
       <c r="N13">
-        <v>0.9677864301762357</v>
+        <v>1.003544975207115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9356219477528225</v>
+        <v>0.9725935276421142</v>
       </c>
       <c r="D14">
-        <v>0.9672955534129875</v>
+        <v>0.9960244427367018</v>
       </c>
       <c r="E14">
-        <v>0.9514109695895022</v>
+        <v>0.9835197600992254</v>
       </c>
       <c r="F14">
-        <v>0.8960820009261887</v>
+        <v>0.9363661424193533</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01941062859851</v>
+        <v>1.030239086651182</v>
       </c>
       <c r="J14">
-        <v>0.9679817431040278</v>
+        <v>1.003189984240595</v>
       </c>
       <c r="K14">
-        <v>0.9828795742481325</v>
+        <v>1.011038791570047</v>
       </c>
       <c r="L14">
-        <v>0.9673295697182487</v>
+        <v>0.9987766956213628</v>
       </c>
       <c r="M14">
-        <v>0.9132913138088944</v>
+        <v>0.9526155912372833</v>
       </c>
       <c r="N14">
-        <v>0.9693563882082934</v>
+        <v>1.004614629085716</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368492312864456</v>
+        <v>0.9734826977277652</v>
       </c>
       <c r="D15">
-        <v>0.9682203694763621</v>
+        <v>0.9967064999405247</v>
       </c>
       <c r="E15">
-        <v>0.9524295521992427</v>
+        <v>0.9842502258542241</v>
       </c>
       <c r="F15">
-        <v>0.8977650445217862</v>
+        <v>0.9376378416933548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019796699408593</v>
+        <v>1.030574352741122</v>
       </c>
       <c r="J15">
-        <v>0.968938726701672</v>
+        <v>1.003843752082827</v>
       </c>
       <c r="K15">
-        <v>0.9836921412096584</v>
+        <v>1.011618520584195</v>
       </c>
       <c r="L15">
-        <v>0.9682307329113997</v>
+        <v>0.9994017819010796</v>
       </c>
       <c r="M15">
-        <v>0.9148274776183067</v>
+        <v>0.9537609927360535</v>
       </c>
       <c r="N15">
-        <v>0.9703147308324138</v>
+        <v>1.005269325353273</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9438296411613865</v>
+        <v>0.9785743276314693</v>
       </c>
       <c r="D16">
-        <v>0.9734846897939137</v>
+        <v>1.000614489678932</v>
       </c>
       <c r="E16">
-        <v>0.9582282378049902</v>
+        <v>0.9884365841679504</v>
       </c>
       <c r="F16">
-        <v>0.9073125065934287</v>
+        <v>0.9449049696690932</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021988008847775</v>
+        <v>1.03249007440453</v>
       </c>
       <c r="J16">
-        <v>0.9743792052058224</v>
+        <v>1.007584986192595</v>
       </c>
       <c r="K16">
-        <v>0.9883116364232947</v>
+        <v>1.014936013031142</v>
       </c>
       <c r="L16">
-        <v>0.9733559627916455</v>
+        <v>1.002980504084717</v>
       </c>
       <c r="M16">
-        <v>0.9235421040122547</v>
+        <v>0.9603058652427855</v>
       </c>
       <c r="N16">
-        <v>0.9757629354400715</v>
+        <v>1.009015872444601</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9480737651791994</v>
+        <v>0.981697725228073</v>
       </c>
       <c r="D17">
-        <v>0.9766888076926089</v>
+        <v>1.003013719120885</v>
       </c>
       <c r="E17">
-        <v>0.9617582270096482</v>
+        <v>0.991007606607978</v>
       </c>
       <c r="F17">
-        <v>0.9130976255052548</v>
+        <v>0.9493508758958891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023316240181258</v>
+        <v>1.033661607747216</v>
       </c>
       <c r="J17">
-        <v>0.9776847794569761</v>
+        <v>1.009877867401074</v>
       </c>
       <c r="K17">
-        <v>0.991118296518365</v>
+        <v>1.016969112462601</v>
       </c>
       <c r="L17">
-        <v>0.9764717286847493</v>
+        <v>1.005175163801981</v>
       </c>
       <c r="M17">
-        <v>0.928822669345806</v>
+        <v>0.9643093386324717</v>
       </c>
       <c r="N17">
-        <v>0.9790732039858165</v>
+        <v>1.011312009807394</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505040854522272</v>
+        <v>0.9834953920449083</v>
       </c>
       <c r="D18">
-        <v>0.9785246821222066</v>
+        <v>1.004395233299901</v>
       </c>
       <c r="E18">
-        <v>0.9637810772101225</v>
+        <v>0.9924883702300472</v>
       </c>
       <c r="F18">
-        <v>0.9164040460394834</v>
+        <v>0.9519057845372675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024075307864637</v>
+        <v>1.034334552633543</v>
       </c>
       <c r="J18">
-        <v>0.9795768275709019</v>
+        <v>1.011196758262684</v>
       </c>
       <c r="K18">
-        <v>0.9927246980990063</v>
+        <v>1.018138528137431</v>
       </c>
       <c r="L18">
-        <v>0.9782557228597367</v>
+        <v>1.006438036260398</v>
       </c>
       <c r="M18">
-        <v>0.9318406645000762</v>
+        <v>0.9666097517706742</v>
       </c>
       <c r="N18">
-        <v>0.9809679390250849</v>
+        <v>1.012632773645306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9513253794561363</v>
+        <v>0.9841043624265176</v>
       </c>
       <c r="D19">
-        <v>0.9791452660050481</v>
+        <v>1.00486333373214</v>
       </c>
       <c r="E19">
-        <v>0.9644649119535771</v>
+        <v>0.9929901557964931</v>
       </c>
       <c r="F19">
-        <v>0.9175204019563477</v>
+        <v>0.9527706444863258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024331562480667</v>
+        <v>1.03456228945795</v>
       </c>
       <c r="J19">
-        <v>0.9802160777180505</v>
+        <v>1.011643408587679</v>
       </c>
       <c r="K19">
-        <v>0.99326742227305</v>
+        <v>1.018534548619116</v>
       </c>
       <c r="L19">
-        <v>0.9788585626300466</v>
+        <v>1.006865795601973</v>
       </c>
       <c r="M19">
-        <v>0.932859622147759</v>
+        <v>0.9673884176190697</v>
       </c>
       <c r="N19">
-        <v>0.9816080969807659</v>
+        <v>1.013080058264994</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9476231558658568</v>
+        <v>0.9813651395713578</v>
       </c>
       <c r="D20">
-        <v>0.9763485017673218</v>
+        <v>1.002758176580974</v>
       </c>
       <c r="E20">
-        <v>0.9613832842715927</v>
+        <v>0.9907337323702518</v>
       </c>
       <c r="F20">
-        <v>0.9124840801900661</v>
+        <v>0.9488778836328671</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023175375794353</v>
+        <v>1.033536998303877</v>
       </c>
       <c r="J20">
-        <v>0.9773339043122974</v>
+        <v>1.009633797066584</v>
       </c>
       <c r="K20">
-        <v>0.9908203864985717</v>
+        <v>1.016752699544311</v>
       </c>
       <c r="L20">
-        <v>0.976140938961057</v>
+        <v>1.004941498631423</v>
       </c>
       <c r="M20">
-        <v>0.9282626386130352</v>
+        <v>0.9638834406194032</v>
       </c>
       <c r="N20">
-        <v>0.9787218305581863</v>
+        <v>1.011067592865034</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9350323662045056</v>
+        <v>0.972167029905124</v>
       </c>
       <c r="D21">
-        <v>0.966851357726064</v>
+        <v>0.995697332411587</v>
       </c>
       <c r="E21">
-        <v>0.950921746957506</v>
+        <v>0.9831694510429287</v>
       </c>
       <c r="F21">
-        <v>0.8952729850192995</v>
+        <v>0.9357558764048676</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019225081830962</v>
+        <v>1.030078200644595</v>
       </c>
       <c r="J21">
-        <v>0.9675219669433116</v>
+        <v>1.002876355945574</v>
       </c>
       <c r="K21">
-        <v>0.9824891844416258</v>
+        <v>1.010760681236359</v>
       </c>
       <c r="L21">
-        <v>0.9668966513394704</v>
+        <v>0.9984768562827219</v>
       </c>
       <c r="M21">
-        <v>0.9125529115489033</v>
+        <v>0.9520659254861561</v>
       </c>
       <c r="N21">
-        <v>0.9688959591126918</v>
+        <v>1.004300555402542</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9266329233098705</v>
+        <v>0.966138386687783</v>
       </c>
       <c r="D22">
-        <v>0.960529100523023</v>
+        <v>0.9910766683948095</v>
       </c>
       <c r="E22">
-        <v>0.9439591702189123</v>
+        <v>0.9782222597032035</v>
       </c>
       <c r="F22">
-        <v>0.8837113104792297</v>
+        <v>0.9271091127010735</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016576431890887</v>
+        <v>1.027799192818171</v>
       </c>
       <c r="J22">
-        <v>0.9609687444876506</v>
+        <v>0.9984402564892524</v>
       </c>
       <c r="K22">
-        <v>0.9769252435705699</v>
+        <v>1.006826995338337</v>
       </c>
       <c r="L22">
-        <v>0.9607290160847223</v>
+        <v>0.9942378449652204</v>
       </c>
       <c r="M22">
-        <v>0.9020014144971856</v>
+        <v>0.9442774051566067</v>
       </c>
       <c r="N22">
-        <v>0.9623334303294792</v>
+        <v>0.9998581561761656</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9311356276558662</v>
+        <v>0.9693590221233905</v>
       </c>
       <c r="D23">
-        <v>0.9639168819569619</v>
+        <v>0.9935443996650042</v>
       </c>
       <c r="E23">
-        <v>0.9476899526748686</v>
+        <v>0.9808641109153836</v>
       </c>
       <c r="F23">
-        <v>0.8899177445506239</v>
+        <v>0.9317332506801563</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017997484819124</v>
+        <v>1.029017795203731</v>
       </c>
       <c r="J23">
-        <v>0.9644824338112004</v>
+        <v>1.000810781293039</v>
       </c>
       <c r="K23">
-        <v>0.9799084151676538</v>
+        <v>1.008929032328871</v>
       </c>
       <c r="L23">
-        <v>0.9640353146318951</v>
+        <v>0.9965025761079773</v>
       </c>
       <c r="M23">
-        <v>0.9076653044718579</v>
+        <v>0.9484426453384569</v>
       </c>
       <c r="N23">
-        <v>0.9658521094948935</v>
+        <v>1.002232047397076</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9478269057398556</v>
+        <v>0.9815154950796854</v>
       </c>
       <c r="D24">
-        <v>0.9765023729022589</v>
+        <v>1.002873700413416</v>
       </c>
       <c r="E24">
-        <v>0.9615528158076919</v>
+        <v>0.9908575424430089</v>
       </c>
       <c r="F24">
-        <v>0.9127615235619226</v>
+        <v>0.9490917263445122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023239074519746</v>
+        <v>1.033593335946085</v>
       </c>
       <c r="J24">
-        <v>0.9774925604451935</v>
+        <v>1.009744138924255</v>
       </c>
       <c r="K24">
-        <v>0.9909550935042396</v>
+        <v>1.016850537895433</v>
       </c>
       <c r="L24">
-        <v>0.9762905111908974</v>
+        <v>1.005047134926839</v>
       </c>
       <c r="M24">
-        <v>0.9285158830362736</v>
+        <v>0.9640759925011276</v>
       </c>
       <c r="N24">
-        <v>0.9788807120009896</v>
+        <v>1.011178091420799</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654432682420632</v>
+        <v>0.9946841920271619</v>
       </c>
       <c r="D25">
-        <v>0.9898257634412098</v>
+        <v>1.013003810997602</v>
       </c>
       <c r="E25">
-        <v>0.9762385459469118</v>
+        <v>1.001721373721782</v>
       </c>
       <c r="F25">
-        <v>0.9366374879913459</v>
+        <v>0.967748873395552</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028713486311723</v>
+        <v>1.038499037623115</v>
       </c>
       <c r="J25">
-        <v>0.9911923204290468</v>
+        <v>1.019391788278233</v>
       </c>
       <c r="K25">
-        <v>1.00258410167895</v>
+        <v>1.025403558542993</v>
       </c>
       <c r="L25">
-        <v>0.9892172787419371</v>
+        <v>1.014293026223817</v>
       </c>
       <c r="M25">
-        <v>0.9503060961793137</v>
+        <v>0.9808693674464211</v>
       </c>
       <c r="N25">
-        <v>0.9925999272154044</v>
+        <v>1.020839441543461</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004549703952033</v>
+        <v>1.004322470989348</v>
       </c>
       <c r="D2">
-        <v>1.020607171044947</v>
+        <v>1.019726951563397</v>
       </c>
       <c r="E2">
-        <v>1.009886119590803</v>
+        <v>1.010091305112905</v>
       </c>
       <c r="F2">
-        <v>0.981645326397694</v>
+        <v>1.018494775332021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0421318469705</v>
+        <v>1.042201575589939</v>
       </c>
       <c r="J2">
-        <v>1.026595180531047</v>
+        <v>1.026374661867088</v>
       </c>
       <c r="K2">
-        <v>1.031786690505275</v>
+        <v>1.030918132917725</v>
       </c>
       <c r="L2">
-        <v>1.021209422022363</v>
+        <v>1.021411819700138</v>
       </c>
       <c r="M2">
-        <v>0.9933664353135014</v>
+        <v>1.029702324103362</v>
       </c>
       <c r="N2">
-        <v>1.028053063439515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012431358185474</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032079737676723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011391458999646</v>
+        <v>1.008570351005329</v>
       </c>
       <c r="D3">
-        <v>1.025886262575443</v>
+        <v>1.022718636267676</v>
       </c>
       <c r="E3">
-        <v>1.015561451180327</v>
+        <v>1.013476522510217</v>
       </c>
       <c r="F3">
-        <v>0.9912498971480598</v>
+        <v>1.021737886335996</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044625880893775</v>
+        <v>1.043358790499958</v>
       </c>
       <c r="J3">
-        <v>1.031576326061662</v>
+        <v>1.028830075296018</v>
       </c>
       <c r="K3">
-        <v>1.036198300417423</v>
+        <v>1.03306885140627</v>
       </c>
       <c r="L3">
-        <v>1.025999018106607</v>
+        <v>1.023939824373594</v>
       </c>
       <c r="M3">
-        <v>1.001995975161343</v>
+        <v>1.032099981413036</v>
       </c>
       <c r="N3">
-        <v>1.033041282768128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.0132802257241</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.033977342621207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015683434438683</v>
+        <v>1.011261547478555</v>
       </c>
       <c r="D4">
-        <v>1.029200176664029</v>
+        <v>1.02461644979807</v>
       </c>
       <c r="E4">
-        <v>1.019127185955299</v>
+        <v>1.015626601755222</v>
       </c>
       <c r="F4">
-        <v>0.9972637603478787</v>
+        <v>1.023801623661016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046178452964122</v>
+        <v>1.044082472374496</v>
       </c>
       <c r="J4">
-        <v>1.03469429018099</v>
+        <v>1.030381503649618</v>
       </c>
       <c r="K4">
-        <v>1.038958505683407</v>
+        <v>1.034426583658897</v>
       </c>
       <c r="L4">
-        <v>1.029000116044831</v>
+        <v>1.025540016017191</v>
       </c>
       <c r="M4">
-        <v>1.007395321941422</v>
+        <v>1.033621026496555</v>
       </c>
       <c r="N4">
-        <v>1.036163674754141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013816163897635</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035181157818065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017457264851333</v>
+        <v>1.012379615019631</v>
       </c>
       <c r="D5">
-        <v>1.030570235115556</v>
+        <v>1.025405444732784</v>
       </c>
       <c r="E5">
-        <v>1.020602107564759</v>
+        <v>1.016521119258529</v>
       </c>
       <c r="F5">
-        <v>0.9997470227241086</v>
+        <v>1.024661154900597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046817197882979</v>
+        <v>1.044380819749687</v>
       </c>
       <c r="J5">
-        <v>1.03598125644589</v>
+        <v>1.031025013204737</v>
       </c>
       <c r="K5">
-        <v>1.040097477320261</v>
+        <v>1.034989457454918</v>
       </c>
       <c r="L5">
-        <v>1.030239552399835</v>
+        <v>1.026204449678847</v>
       </c>
       <c r="M5">
-        <v>1.009623825039971</v>
+        <v>1.034253406739612</v>
       </c>
       <c r="N5">
-        <v>1.037452468658754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014038359669194</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.03568164793277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017753359434207</v>
+        <v>1.012566575460546</v>
       </c>
       <c r="D6">
-        <v>1.030798954705497</v>
+        <v>1.025537408868387</v>
       </c>
       <c r="E6">
-        <v>1.020848377910643</v>
+        <v>1.01667077112266</v>
       </c>
       <c r="F6">
-        <v>1.000161422235117</v>
+        <v>1.024805008476905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046923646853182</v>
+        <v>1.044430571769126</v>
       </c>
       <c r="J6">
-        <v>1.036195983673577</v>
+        <v>1.031132557243059</v>
       </c>
       <c r="K6">
-        <v>1.040287492080377</v>
+        <v>1.035083507981098</v>
       </c>
       <c r="L6">
-        <v>1.030446390441132</v>
+        <v>1.026315531694027</v>
       </c>
       <c r="M6">
-        <v>1.009995650214256</v>
+        <v>1.034359177698513</v>
       </c>
       <c r="N6">
-        <v>1.037667500823734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014075487045666</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035765359114594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015707254058774</v>
+        <v>1.011276538881042</v>
       </c>
       <c r="D7">
-        <v>1.029218572614032</v>
+        <v>1.024627026817849</v>
       </c>
       <c r="E7">
-        <v>1.019146986913769</v>
+        <v>1.015638590804756</v>
       </c>
       <c r="F7">
-        <v>0.9972971145820847</v>
+        <v>1.023813140107505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046187041859779</v>
+        <v>1.044086481884378</v>
       </c>
       <c r="J7">
-        <v>1.034711578607457</v>
+        <v>1.030390136173627</v>
       </c>
       <c r="K7">
-        <v>1.038973807353981</v>
+        <v>1.034434135648501</v>
       </c>
       <c r="L7">
-        <v>1.02901676320256</v>
+        <v>1.025548926470346</v>
       </c>
       <c r="M7">
-        <v>1.007425258413863</v>
+        <v>1.033629503888476</v>
       </c>
       <c r="N7">
-        <v>1.036180987732157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013819145015497</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035187867155339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006891032569105</v>
+        <v>1.005770236082888</v>
       </c>
       <c r="D8">
-        <v>1.022413213509426</v>
+        <v>1.020746030965754</v>
       </c>
       <c r="E8">
-        <v>1.011827078488174</v>
+        <v>1.011243896746927</v>
       </c>
       <c r="F8">
-        <v>0.9849348311936155</v>
+        <v>1.019598160258865</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042987840353205</v>
+        <v>1.042597938176214</v>
       </c>
       <c r="J8">
-        <v>1.028301211692271</v>
+        <v>1.027212369948592</v>
       </c>
       <c r="K8">
-        <v>1.033297906642794</v>
+        <v>1.031652129684707</v>
       </c>
       <c r="L8">
-        <v>1.022849192690827</v>
+        <v>1.022273686197848</v>
       </c>
       <c r="M8">
-        <v>0.9963228122124272</v>
+        <v>1.030519047821929</v>
       </c>
       <c r="N8">
-        <v>1.029761517360672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012721047630677</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03272612711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.990229319886515</v>
+        <v>0.9956061366351939</v>
       </c>
       <c r="D9">
-        <v>1.009574281058722</v>
+        <v>1.013604164081922</v>
       </c>
       <c r="E9">
-        <v>0.998041781815144</v>
+        <v>1.00317679003181</v>
       </c>
       <c r="F9">
-        <v>0.9614524112958298</v>
+        <v>1.011892223828019</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036846123254122</v>
+        <v>1.039776715026745</v>
       </c>
       <c r="J9">
-        <v>1.016131887514877</v>
+        <v>1.021315013378321</v>
       </c>
       <c r="K9">
-        <v>1.02251390887763</v>
+        <v>1.026480312872486</v>
       </c>
       <c r="L9">
-        <v>1.011166709840883</v>
+        <v>1.016218535447516</v>
       </c>
       <c r="M9">
-        <v>0.9752034718901844</v>
+        <v>1.024795260180576</v>
       </c>
       <c r="N9">
-        <v>1.017574911347104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01068012704444</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.028196068675088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9782179981961644</v>
+        <v>0.9886239749843178</v>
       </c>
       <c r="D10">
-        <v>1.000340867646424</v>
+        <v>1.008731578999561</v>
       </c>
       <c r="E10">
-        <v>0.9881434143610996</v>
+        <v>0.9976820373735632</v>
       </c>
       <c r="F10">
-        <v>0.9443971968883734</v>
+        <v>1.006887781148171</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032356240506663</v>
+        <v>1.037822012431409</v>
       </c>
       <c r="J10">
-        <v>1.007323299799734</v>
+        <v>1.017296327583876</v>
       </c>
       <c r="K10">
-        <v>1.014703970348797</v>
+        <v>1.022944951622639</v>
       </c>
       <c r="L10">
-        <v>1.002730094584184</v>
+        <v>1.012093269853112</v>
       </c>
       <c r="M10">
-        <v>0.9598485925691707</v>
+        <v>1.021133778306737</v>
       </c>
       <c r="N10">
-        <v>1.008753814427047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009295687874656</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025350465597742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9727635886675376</v>
+        <v>0.9866017463384354</v>
       </c>
       <c r="D11">
-        <v>0.9961548821588815</v>
+        <v>1.007452403248097</v>
       </c>
       <c r="E11">
-        <v>0.9836594534983063</v>
+        <v>0.9962154501785849</v>
       </c>
       <c r="F11">
-        <v>0.9366094271960393</v>
+        <v>1.007325466277802</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030303224959126</v>
+        <v>1.037489180215937</v>
       </c>
       <c r="J11">
-        <v>1.003315032105963</v>
+        <v>1.016542729568118</v>
       </c>
       <c r="K11">
-        <v>1.011149677907054</v>
+        <v>1.022235133455628</v>
       </c>
       <c r="L11">
-        <v>0.9988962510113436</v>
+        <v>1.011209092230588</v>
       </c>
       <c r="M11">
-        <v>0.9528347161248116</v>
+        <v>1.022110544769099</v>
       </c>
       <c r="N11">
-        <v>1.004739854533396</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009106834805924</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026565767589273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706955741370225</v>
+        <v>0.9862289659107227</v>
       </c>
       <c r="D12">
-        <v>0.9945689930021411</v>
+        <v>1.007291549695738</v>
       </c>
       <c r="E12">
-        <v>0.9819611761197889</v>
+        <v>0.9960141709442069</v>
       </c>
       <c r="F12">
-        <v>0.9336489647713868</v>
+        <v>1.008380241549413</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029522772416374</v>
+        <v>1.037561368764913</v>
       </c>
       <c r="J12">
-        <v>1.001794097935034</v>
+        <v>1.01662779579835</v>
       </c>
       <c r="K12">
-        <v>1.0098009874853</v>
+        <v>1.022280375814051</v>
       </c>
       <c r="L12">
-        <v>0.9974423283339312</v>
+        <v>1.011218133626853</v>
       </c>
       <c r="M12">
-        <v>0.9501681983368735</v>
+        <v>1.023348631419974</v>
       </c>
       <c r="N12">
-        <v>1.003216760461491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009195457766104</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.027875204305866</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9711411406200949</v>
+        <v>0.987094482424689</v>
       </c>
       <c r="D13">
-        <v>0.9949106253099169</v>
+        <v>1.007974275275907</v>
       </c>
       <c r="E13">
-        <v>0.9823269968209769</v>
+        <v>0.9967653532905926</v>
       </c>
       <c r="F13">
-        <v>0.9342871886749168</v>
+        <v>1.009998385539806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029691017676427</v>
+        <v>1.037950494787697</v>
       </c>
       <c r="J13">
-        <v>1.002121847239053</v>
+        <v>1.017360590675326</v>
       </c>
       <c r="K13">
-        <v>1.010091619495692</v>
+        <v>1.022906752643738</v>
       </c>
       <c r="L13">
-        <v>0.9977555990120139</v>
+        <v>1.011910544322838</v>
       </c>
       <c r="M13">
-        <v>0.9507430615923388</v>
+        <v>1.024893107534418</v>
       </c>
       <c r="N13">
-        <v>1.003544975207115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009501989494321</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.029375630151367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9725935276421142</v>
+        <v>0.988245536788365</v>
       </c>
       <c r="D14">
-        <v>0.9960244427367018</v>
+        <v>1.008822061575328</v>
       </c>
       <c r="E14">
-        <v>0.9835197600992254</v>
+        <v>0.9977090333780968</v>
       </c>
       <c r="F14">
-        <v>0.9363661424193533</v>
+        <v>1.011356581235218</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030239086651182</v>
+        <v>1.038358794868897</v>
       </c>
       <c r="J14">
-        <v>1.003189984240595</v>
+        <v>1.018151990963346</v>
       </c>
       <c r="K14">
-        <v>1.011038791570047</v>
+        <v>1.023596255849078</v>
       </c>
       <c r="L14">
-        <v>0.9987766956213628</v>
+        <v>1.012691309454744</v>
       </c>
       <c r="M14">
-        <v>0.9526155912372833</v>
+        <v>1.026084152836469</v>
       </c>
       <c r="N14">
-        <v>1.004614629085716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009809885947845</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030491739036314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9734826977277652</v>
+        <v>0.9888066114650297</v>
       </c>
       <c r="D15">
-        <v>0.9967064999405247</v>
+        <v>1.009221532228207</v>
       </c>
       <c r="E15">
-        <v>0.9842502258542241</v>
+        <v>0.9981566488676723</v>
       </c>
       <c r="F15">
-        <v>0.9376378416933548</v>
+        <v>1.011858563982431</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030574352741122</v>
+        <v>1.038533296676883</v>
       </c>
       <c r="J15">
-        <v>1.003843752082827</v>
+        <v>1.018498620515448</v>
       </c>
       <c r="K15">
-        <v>1.011618520584195</v>
+        <v>1.023900641097939</v>
       </c>
       <c r="L15">
-        <v>0.9994017819010796</v>
+        <v>1.013041290562116</v>
       </c>
       <c r="M15">
-        <v>0.9537609927360535</v>
+        <v>1.026489552401276</v>
       </c>
       <c r="N15">
-        <v>1.005269325353273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009936787442353</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030849944857406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9785743276314693</v>
+        <v>0.9915691218623784</v>
       </c>
       <c r="D16">
-        <v>1.000614489678932</v>
+        <v>1.011128559310787</v>
       </c>
       <c r="E16">
-        <v>0.9884365841679504</v>
+        <v>1.000308585241414</v>
       </c>
       <c r="F16">
-        <v>0.9449049696690932</v>
+        <v>1.013697917717702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03249007440453</v>
+        <v>1.039284845554922</v>
       </c>
       <c r="J16">
-        <v>1.007584986192595</v>
+        <v>1.020043408342679</v>
       </c>
       <c r="K16">
-        <v>1.014936013031142</v>
+        <v>1.025263653476809</v>
       </c>
       <c r="L16">
-        <v>1.002980504084717</v>
+        <v>1.014635608951591</v>
       </c>
       <c r="M16">
-        <v>0.9603058652427855</v>
+        <v>1.027788214669618</v>
       </c>
       <c r="N16">
-        <v>1.009015872444601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010457905875865</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.031837429307016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981697725228073</v>
+        <v>0.9930955834644877</v>
       </c>
       <c r="D17">
-        <v>1.003013719120885</v>
+        <v>1.012156037363299</v>
       </c>
       <c r="E17">
-        <v>0.991007606607978</v>
+        <v>1.00147533617554</v>
       </c>
       <c r="F17">
-        <v>0.9493508758958891</v>
+        <v>1.014404167553448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033661607747216</v>
+        <v>1.039649637334633</v>
       </c>
       <c r="J17">
-        <v>1.009877867401074</v>
+        <v>1.020821698482955</v>
       </c>
       <c r="K17">
-        <v>1.016969112462601</v>
+        <v>1.025954232213543</v>
       </c>
       <c r="L17">
-        <v>1.005175163801981</v>
+        <v>1.015457546759889</v>
       </c>
       <c r="M17">
-        <v>0.9643093386324717</v>
+        <v>1.028164266744589</v>
       </c>
       <c r="N17">
-        <v>1.011312009807394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010698800325459</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.032004736806916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834953920449083</v>
+        <v>0.9936604310898547</v>
       </c>
       <c r="D18">
-        <v>1.004395233299901</v>
+        <v>1.012486778693751</v>
       </c>
       <c r="E18">
-        <v>0.9924883702300472</v>
+        <v>1.001863042262697</v>
       </c>
       <c r="F18">
-        <v>0.9519057845372675</v>
+        <v>1.014032192338422</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034334552633543</v>
+        <v>1.039693955656137</v>
       </c>
       <c r="J18">
-        <v>1.011196758262684</v>
+        <v>1.020965097783611</v>
       </c>
       <c r="K18">
-        <v>1.018138528137431</v>
+        <v>1.026093399663305</v>
       </c>
       <c r="L18">
-        <v>1.006438036260398</v>
+        <v>1.015649694474377</v>
       </c>
       <c r="M18">
-        <v>0.9666097517706742</v>
+        <v>1.027613029351417</v>
       </c>
       <c r="N18">
-        <v>1.012632773645306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010703482727554</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.031329316785444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841043624265176</v>
+        <v>0.9933166357776073</v>
       </c>
       <c r="D19">
-        <v>1.00486333373214</v>
+        <v>1.012158727590938</v>
       </c>
       <c r="E19">
-        <v>0.9929901557964931</v>
+        <v>1.001512896203281</v>
       </c>
       <c r="F19">
-        <v>0.9527706444863258</v>
+        <v>1.01257244847296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03456228945795</v>
+        <v>1.039434232768923</v>
       </c>
       <c r="J19">
-        <v>1.011643408587679</v>
+        <v>1.020498412903832</v>
       </c>
       <c r="K19">
-        <v>1.018534548619116</v>
+        <v>1.025707398932828</v>
       </c>
       <c r="L19">
-        <v>1.006865795601973</v>
+        <v>1.015241162573134</v>
       </c>
       <c r="M19">
-        <v>0.9673884176190697</v>
+        <v>1.026114238523065</v>
       </c>
       <c r="N19">
-        <v>1.013080058264994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010486288164795</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.029815343869414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9813651395713578</v>
+        <v>0.9904410212839792</v>
       </c>
       <c r="D20">
-        <v>1.002758176580974</v>
+        <v>1.009998718686606</v>
       </c>
       <c r="E20">
-        <v>0.9907337323702518</v>
+        <v>0.9991099924599391</v>
       </c>
       <c r="F20">
-        <v>0.9488778836328671</v>
+        <v>1.00819705635872</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033536998303877</v>
+        <v>1.038335187103272</v>
       </c>
       <c r="J20">
-        <v>1.009633797066584</v>
+        <v>1.018345464397558</v>
       </c>
       <c r="K20">
-        <v>1.016752699544311</v>
+        <v>1.023868002026011</v>
       </c>
       <c r="L20">
-        <v>1.004941498631423</v>
+        <v>1.013168509651163</v>
       </c>
       <c r="M20">
-        <v>0.9638834406194032</v>
+        <v>1.022097285670076</v>
       </c>
       <c r="N20">
-        <v>1.011067592865034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009657559586006</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.026102274126981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.972167029905124</v>
+        <v>0.9849735035649566</v>
       </c>
       <c r="D21">
-        <v>0.995697332411587</v>
+        <v>1.006166790409613</v>
       </c>
       <c r="E21">
-        <v>0.9831694510429287</v>
+        <v>0.9947976668435041</v>
       </c>
       <c r="F21">
-        <v>0.9357558764048676</v>
+        <v>1.003926459887113</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030078200644595</v>
+        <v>1.036742822152591</v>
       </c>
       <c r="J21">
-        <v>1.002876355945574</v>
+        <v>1.01511319359522</v>
       </c>
       <c r="K21">
-        <v>1.010760681236359</v>
+        <v>1.021032265391257</v>
       </c>
       <c r="L21">
-        <v>0.9984768562827219</v>
+        <v>1.009878273885596</v>
       </c>
       <c r="M21">
-        <v>0.9520659254861561</v>
+        <v>1.018833824163988</v>
       </c>
       <c r="N21">
-        <v>1.004300555402542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008530847935553</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02347789314029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.966138386687783</v>
+        <v>0.9815206415871983</v>
       </c>
       <c r="D22">
-        <v>0.9910766683948095</v>
+        <v>1.003759544986231</v>
       </c>
       <c r="E22">
-        <v>0.9782222597032035</v>
+        <v>0.9920893943626741</v>
       </c>
       <c r="F22">
-        <v>0.9271091127010735</v>
+        <v>1.001359397364491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027799192818171</v>
+        <v>1.035742644391121</v>
       </c>
       <c r="J22">
-        <v>0.9984402564892524</v>
+        <v>1.013093898577488</v>
       </c>
       <c r="K22">
-        <v>1.006826995338337</v>
+        <v>1.019256890659847</v>
       </c>
       <c r="L22">
-        <v>0.9942378449652204</v>
+        <v>1.007819207801126</v>
       </c>
       <c r="M22">
-        <v>0.9442774051566067</v>
+        <v>1.016903972343794</v>
       </c>
       <c r="N22">
-        <v>0.9998581561761656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007830594912448</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.021950505870876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9693590221233905</v>
+        <v>0.983359034877988</v>
       </c>
       <c r="D23">
-        <v>0.9935443996650042</v>
+        <v>1.005040721294638</v>
       </c>
       <c r="E23">
-        <v>0.9808641109153836</v>
+        <v>0.9935305776264804</v>
       </c>
       <c r="F23">
-        <v>0.9317332506801563</v>
+        <v>1.002724992652374</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029017795203731</v>
+        <v>1.036275990915321</v>
       </c>
       <c r="J23">
-        <v>1.000810781293039</v>
+        <v>1.014169296890842</v>
       </c>
       <c r="K23">
-        <v>1.008929032328871</v>
+        <v>1.020202464439699</v>
       </c>
       <c r="L23">
-        <v>0.9965025761079773</v>
+        <v>1.008915482347068</v>
       </c>
       <c r="M23">
-        <v>0.9484426453384569</v>
+        <v>1.017931094694089</v>
       </c>
       <c r="N23">
-        <v>1.002232047397076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008203544850367</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022763425503195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9815154950796854</v>
+        <v>0.9904242434760432</v>
       </c>
       <c r="D24">
-        <v>1.002873700413416</v>
+        <v>1.009974985022434</v>
       </c>
       <c r="E24">
-        <v>0.9908575424430089</v>
+        <v>0.9990856733650504</v>
       </c>
       <c r="F24">
-        <v>0.9490917263445122</v>
+        <v>1.007998352723916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033593335946085</v>
+        <v>1.038307425931524</v>
       </c>
       <c r="J24">
-        <v>1.009744138924255</v>
+        <v>1.018295953181138</v>
       </c>
       <c r="K24">
-        <v>1.016850537895433</v>
+        <v>1.023829164278187</v>
       </c>
       <c r="L24">
-        <v>1.005047134926839</v>
+        <v>1.013128864651914</v>
       </c>
       <c r="M24">
-        <v>0.9640759925011276</v>
+        <v>1.021886449305994</v>
       </c>
       <c r="N24">
-        <v>1.011178091420799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009634155108479</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025893895844252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9946841920271619</v>
+        <v>0.9982915803968085</v>
       </c>
       <c r="D25">
-        <v>1.013003810997602</v>
+        <v>1.015488180574881</v>
       </c>
       <c r="E25">
-        <v>1.001721373721782</v>
+        <v>1.005302647565398</v>
       </c>
       <c r="F25">
-        <v>0.967748873395552</v>
+        <v>1.013919210891726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038499037623115</v>
+        <v>1.040530424435997</v>
       </c>
       <c r="J25">
-        <v>1.019391788278233</v>
+        <v>1.022876576782617</v>
       </c>
       <c r="K25">
-        <v>1.025403558542993</v>
+        <v>1.027850727803671</v>
       </c>
       <c r="L25">
-        <v>1.014293026223817</v>
+        <v>1.017819200707355</v>
       </c>
       <c r="M25">
-        <v>0.9808693674464211</v>
+        <v>1.026305224481207</v>
       </c>
       <c r="N25">
-        <v>1.020839441543461</v>
+        <v>1.011220865966727</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029391124009867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,55 +424,70 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.004322470989348</v>
+        <v>1.0045531124496</v>
       </c>
       <c r="D2">
-        <v>1.019726951563397</v>
+        <v>1.019668813453678</v>
       </c>
       <c r="E2">
-        <v>1.010091305112905</v>
+        <v>1.010311259863542</v>
       </c>
       <c r="F2">
-        <v>1.018494775332021</v>
+        <v>1.018594689371445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042201575589939</v>
+        <v>1.042254922834878</v>
       </c>
       <c r="J2">
-        <v>1.026374661867088</v>
+        <v>1.026598488345361</v>
       </c>
       <c r="K2">
-        <v>1.030918132917725</v>
+        <v>1.030860765960505</v>
       </c>
       <c r="L2">
-        <v>1.021411819700138</v>
+        <v>1.021628787520199</v>
       </c>
       <c r="M2">
-        <v>1.029702324103362</v>
+        <v>1.029800909098653</v>
       </c>
       <c r="N2">
-        <v>1.012431358185474</v>
+        <v>1.014070007013924</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032079737676723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032157762011851</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020247227427298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008570351005329</v>
+        <v>1.008540109011618</v>
       </c>
       <c r="D3">
-        <v>1.022718636267676</v>
+        <v>1.02234469605859</v>
       </c>
       <c r="E3">
-        <v>1.013476522510217</v>
+        <v>1.013467788070894</v>
       </c>
       <c r="F3">
-        <v>1.021737886335996</v>
+        <v>1.021724803339684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043358790499958</v>
+        <v>1.043251128250176</v>
       </c>
       <c r="J3">
-        <v>1.028830075296018</v>
+        <v>1.028800638846034</v>
       </c>
       <c r="K3">
-        <v>1.03306885140627</v>
+        <v>1.032699437439523</v>
       </c>
       <c r="L3">
-        <v>1.023939824373594</v>
+        <v>1.023931198023518</v>
       </c>
       <c r="M3">
-        <v>1.032099981413036</v>
+        <v>1.032087057084066</v>
       </c>
       <c r="N3">
-        <v>1.0132802257241</v>
+        <v>1.014673795674012</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033977342621207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033967113787629</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020642983038855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011261547478555</v>
+        <v>1.011068340648312</v>
       </c>
       <c r="D4">
-        <v>1.02461644979807</v>
+        <v>1.024044079581879</v>
       </c>
       <c r="E4">
-        <v>1.015626601755222</v>
+        <v>1.015474823504726</v>
       </c>
       <c r="F4">
-        <v>1.023801623661016</v>
+        <v>1.02371811307595</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044082472374496</v>
+        <v>1.043873623183202</v>
       </c>
       <c r="J4">
-        <v>1.030381503649618</v>
+        <v>1.030193093106591</v>
       </c>
       <c r="K4">
-        <v>1.034426583658897</v>
+        <v>1.033860722482704</v>
       </c>
       <c r="L4">
-        <v>1.025540016017191</v>
+        <v>1.025390000882568</v>
       </c>
       <c r="M4">
-        <v>1.033621026496555</v>
+        <v>1.033538466906131</v>
       </c>
       <c r="N4">
-        <v>1.013816163897635</v>
+        <v>1.015055371987735</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035181157818065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035115816947816</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020890183399738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012379615019631</v>
+        <v>1.012119226686037</v>
       </c>
       <c r="D5">
-        <v>1.025405444732784</v>
+        <v>1.024751012022604</v>
       </c>
       <c r="E5">
-        <v>1.016521119258529</v>
+        <v>1.016310333418483</v>
       </c>
       <c r="F5">
-        <v>1.024661154900597</v>
+        <v>1.024548646976478</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044380819749687</v>
+        <v>1.044130120627247</v>
       </c>
       <c r="J5">
-        <v>1.031025013204737</v>
+        <v>1.030770894866472</v>
       </c>
       <c r="K5">
-        <v>1.034989457454918</v>
+        <v>1.034342268382914</v>
       </c>
       <c r="L5">
-        <v>1.026204449678847</v>
+        <v>1.025996046194125</v>
       </c>
       <c r="M5">
-        <v>1.034253406739612</v>
+        <v>1.034142145532968</v>
       </c>
       <c r="N5">
-        <v>1.014038359669194</v>
+        <v>1.015213654853474</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03568164793277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035593591548244</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020992020294293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,93 +663,111 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012566575460546</v>
+        <v>1.012294983026942</v>
       </c>
       <c r="D6">
-        <v>1.025537408868387</v>
+        <v>1.02486927546441</v>
       </c>
       <c r="E6">
-        <v>1.01667077112266</v>
+        <v>1.016450142313116</v>
       </c>
       <c r="F6">
-        <v>1.024805008476905</v>
+        <v>1.024687666636137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044430571769126</v>
+        <v>1.044172885469332</v>
       </c>
       <c r="J6">
-        <v>1.031132557243059</v>
+        <v>1.0308674708675</v>
       </c>
       <c r="K6">
-        <v>1.035083507981098</v>
+        <v>1.034422735979256</v>
       </c>
       <c r="L6">
-        <v>1.026315531694027</v>
+        <v>1.026097384911494</v>
       </c>
       <c r="M6">
-        <v>1.034359177698513</v>
+        <v>1.034243130131425</v>
       </c>
       <c r="N6">
-        <v>1.014075487045666</v>
+        <v>1.015240107656008</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035765359114594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035673514631521</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021008997946813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.011276538881042</v>
+        <v>1.011092341117539</v>
       </c>
       <c r="D7">
-        <v>1.024627026817849</v>
+        <v>1.024061459268427</v>
       </c>
       <c r="E7">
-        <v>1.015638590804756</v>
+        <v>1.015495062413135</v>
       </c>
       <c r="F7">
-        <v>1.023813140107505</v>
+        <v>1.023733523936915</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044086481884378</v>
+        <v>1.043882193588777</v>
       </c>
       <c r="J7">
-        <v>1.030390136173627</v>
+        <v>1.03021050914425</v>
       </c>
       <c r="K7">
-        <v>1.034434135648501</v>
+        <v>1.03387499741439</v>
       </c>
       <c r="L7">
-        <v>1.025548926470346</v>
+        <v>1.025407064737503</v>
       </c>
       <c r="M7">
-        <v>1.033629503888476</v>
+        <v>1.033550794031835</v>
       </c>
       <c r="N7">
-        <v>1.013819145015497</v>
+        <v>1.015086367951884</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035187867155339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03512557311483</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020894003436581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005770236082888</v>
+        <v>1.005942175332476</v>
       </c>
       <c r="D8">
-        <v>1.020746030965754</v>
+        <v>1.020604509757671</v>
       </c>
       <c r="E8">
-        <v>1.011243896746927</v>
+        <v>1.011413604550903</v>
       </c>
       <c r="F8">
-        <v>1.019598160258865</v>
+        <v>1.019672609938963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042597938176214</v>
+        <v>1.042612190060487</v>
       </c>
       <c r="J8">
-        <v>1.027212369948592</v>
+        <v>1.027379400754028</v>
       </c>
       <c r="K8">
-        <v>1.031652129684707</v>
+        <v>1.031512429547774</v>
       </c>
       <c r="L8">
-        <v>1.022273686197848</v>
+        <v>1.022441159334514</v>
       </c>
       <c r="M8">
-        <v>1.030519047821929</v>
+        <v>1.030592537050149</v>
       </c>
       <c r="N8">
-        <v>1.012721047630677</v>
+        <v>1.014364004582631</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03272612711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032784289540694</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020390518004104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9956061366351939</v>
+        <v>0.9964220988890011</v>
       </c>
       <c r="D9">
-        <v>1.013604164081922</v>
+        <v>1.014232700653439</v>
       </c>
       <c r="E9">
-        <v>1.00317679003181</v>
+        <v>1.003909872786571</v>
       </c>
       <c r="F9">
-        <v>1.011892223828019</v>
+        <v>1.0122466758834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039776715026745</v>
+        <v>1.040183986817239</v>
       </c>
       <c r="J9">
-        <v>1.021315013378321</v>
+        <v>1.022101837800521</v>
       </c>
       <c r="K9">
-        <v>1.026480312872486</v>
+        <v>1.027099006845189</v>
       </c>
       <c r="L9">
-        <v>1.016218535447516</v>
+        <v>1.016939831948943</v>
       </c>
       <c r="M9">
-        <v>1.024795260180576</v>
+        <v>1.02514413569439</v>
       </c>
       <c r="N9">
-        <v>1.01068012704444</v>
+        <v>1.012925838636799</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.028196068675088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028472185018587</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019425582182887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9886239749843178</v>
+        <v>0.9899373152097921</v>
       </c>
       <c r="D10">
-        <v>1.008731578999561</v>
+        <v>1.009930006796013</v>
       </c>
       <c r="E10">
-        <v>0.9976820373735632</v>
+        <v>0.9988499311029881</v>
       </c>
       <c r="F10">
-        <v>1.006887781148171</v>
+        <v>1.007458971096515</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037822012431409</v>
+        <v>1.038524313151401</v>
       </c>
       <c r="J10">
-        <v>1.017296327583876</v>
+        <v>1.018555943105332</v>
       </c>
       <c r="K10">
-        <v>1.022944951622639</v>
+        <v>1.024122256993754</v>
       </c>
       <c r="L10">
-        <v>1.012093269853112</v>
+        <v>1.013239981492485</v>
       </c>
       <c r="M10">
-        <v>1.021133778306737</v>
+        <v>1.021694844942593</v>
       </c>
       <c r="N10">
-        <v>1.009295687874656</v>
+        <v>1.012077337255473</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025350465597742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025794493104091</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018771270181081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9866017463384354</v>
+        <v>0.9880861155417228</v>
       </c>
       <c r="D11">
-        <v>1.007452403248097</v>
+        <v>1.008825153777682</v>
       </c>
       <c r="E11">
-        <v>0.9962154501785849</v>
+        <v>0.9975311519760277</v>
       </c>
       <c r="F11">
-        <v>1.007325466277802</v>
+        <v>1.007966209624819</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037489180215937</v>
+        <v>1.038283782198561</v>
       </c>
       <c r="J11">
-        <v>1.016542729568118</v>
+        <v>1.017963064668876</v>
       </c>
       <c r="K11">
-        <v>1.022235133455628</v>
+        <v>1.023582537839247</v>
       </c>
       <c r="L11">
-        <v>1.011209092230588</v>
+        <v>1.01249977782556</v>
       </c>
       <c r="M11">
-        <v>1.022110544769099</v>
+        <v>1.022739442493476</v>
       </c>
       <c r="N11">
-        <v>1.009106834805924</v>
+        <v>1.012197696782102</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026565767589273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027063218597662</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018711430563258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9862289659107227</v>
+        <v>0.9877357406181834</v>
       </c>
       <c r="D12">
-        <v>1.007291549695738</v>
+        <v>1.008681853721531</v>
       </c>
       <c r="E12">
-        <v>0.9960141709442069</v>
+        <v>0.9973465875140692</v>
       </c>
       <c r="F12">
-        <v>1.008380241549413</v>
+        <v>1.00902706090917</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037561368764913</v>
+        <v>1.038363566249253</v>
       </c>
       <c r="J12">
-        <v>1.01662779579835</v>
+        <v>1.018068370668411</v>
       </c>
       <c r="K12">
-        <v>1.022280375814051</v>
+        <v>1.023644592103715</v>
       </c>
       <c r="L12">
-        <v>1.011218133626853</v>
+        <v>1.012524799890263</v>
       </c>
       <c r="M12">
-        <v>1.023348631419974</v>
+        <v>1.023983336349813</v>
       </c>
       <c r="N12">
-        <v>1.009195457766104</v>
+        <v>1.012370557302535</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.027875204305866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028377074897643</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018768750830332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.987094482424689</v>
+        <v>0.9884975541519592</v>
       </c>
       <c r="D13">
-        <v>1.007974275275907</v>
+        <v>1.009252328984523</v>
       </c>
       <c r="E13">
-        <v>0.9967653532905926</v>
+        <v>0.9980030802979785</v>
       </c>
       <c r="F13">
-        <v>1.009998385539806</v>
+        <v>1.010598013076277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037950494787697</v>
+        <v>1.038689216386927</v>
       </c>
       <c r="J13">
-        <v>1.017360590675326</v>
+        <v>1.018702389532014</v>
       </c>
       <c r="K13">
-        <v>1.022906752643738</v>
+        <v>1.024160944046741</v>
       </c>
       <c r="L13">
-        <v>1.011910544322838</v>
+        <v>1.013124475518219</v>
       </c>
       <c r="M13">
-        <v>1.024893107534418</v>
+        <v>1.025481588198291</v>
       </c>
       <c r="N13">
-        <v>1.009501989494321</v>
+        <v>1.01255693303639</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.029375630151367</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.029840831737775</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018917111266041</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.988245536788365</v>
+        <v>0.9895219264381639</v>
       </c>
       <c r="D14">
-        <v>1.008822061575328</v>
+        <v>1.009965895262767</v>
       </c>
       <c r="E14">
-        <v>0.9977090333780968</v>
+        <v>0.998832975283659</v>
       </c>
       <c r="F14">
-        <v>1.011356581235218</v>
+        <v>1.0119006884229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038358794868897</v>
+        <v>1.039022848128113</v>
       </c>
       <c r="J14">
-        <v>1.018151990963346</v>
+        <v>1.019373484302138</v>
       </c>
       <c r="K14">
-        <v>1.023596255849078</v>
+        <v>1.024719010884629</v>
       </c>
       <c r="L14">
-        <v>1.012691309454744</v>
+        <v>1.013793931393704</v>
       </c>
       <c r="M14">
-        <v>1.026084152836469</v>
+        <v>1.026618290785271</v>
       </c>
       <c r="N14">
-        <v>1.009809885947845</v>
+        <v>1.012691455426047</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030491739036314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030913924487151</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019059866624261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9888066114650297</v>
+        <v>0.9900251289459577</v>
       </c>
       <c r="D15">
-        <v>1.009221532228207</v>
+        <v>1.010304444687723</v>
       </c>
       <c r="E15">
-        <v>0.9981566488676723</v>
+        <v>0.9992291891313032</v>
       </c>
       <c r="F15">
-        <v>1.011858563982431</v>
+        <v>1.012377727057548</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038533296676883</v>
+        <v>1.03916395325787</v>
       </c>
       <c r="J15">
-        <v>1.018498620515448</v>
+        <v>1.019665203206386</v>
       </c>
       <c r="K15">
-        <v>1.023900641097939</v>
+        <v>1.024963753043744</v>
       </c>
       <c r="L15">
-        <v>1.013041290562116</v>
+        <v>1.014093647932066</v>
       </c>
       <c r="M15">
-        <v>1.026489552401276</v>
+        <v>1.02699928023289</v>
       </c>
       <c r="N15">
-        <v>1.009936787442353</v>
+        <v>1.012733757474166</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030849944857406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031252825776177</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01911737843529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9915691218623784</v>
+        <v>0.9925332194386747</v>
       </c>
       <c r="D16">
-        <v>1.011128559310787</v>
+        <v>1.01194187457526</v>
       </c>
       <c r="E16">
-        <v>1.000308585241414</v>
+        <v>1.001158111250721</v>
       </c>
       <c r="F16">
-        <v>1.013697917717702</v>
+        <v>1.014108801942327</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039284845554922</v>
+        <v>1.039771131301205</v>
       </c>
       <c r="J16">
-        <v>1.020043408342679</v>
+        <v>1.020968505125281</v>
       </c>
       <c r="K16">
-        <v>1.025263653476809</v>
+        <v>1.026062756579371</v>
       </c>
       <c r="L16">
-        <v>1.014635608951591</v>
+        <v>1.015469870714191</v>
       </c>
       <c r="M16">
-        <v>1.027788214669618</v>
+        <v>1.028191962303161</v>
       </c>
       <c r="N16">
-        <v>1.010457905875865</v>
+        <v>1.012872226927401</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.031837429307016</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.03215655438095</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019350067105618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9930955834644877</v>
+        <v>0.9939410608409399</v>
       </c>
       <c r="D17">
-        <v>1.012156037363299</v>
+        <v>1.01284042375393</v>
       </c>
       <c r="E17">
-        <v>1.00147533617554</v>
+        <v>1.00222227225121</v>
       </c>
       <c r="F17">
-        <v>1.014404167553448</v>
+        <v>1.014765049990324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039649637334633</v>
+        <v>1.040069015856119</v>
       </c>
       <c r="J17">
-        <v>1.020821698482955</v>
+        <v>1.021634082932259</v>
       </c>
       <c r="K17">
-        <v>1.025954232213543</v>
+        <v>1.026626998231867</v>
       </c>
       <c r="L17">
-        <v>1.015457546759889</v>
+        <v>1.016191448858417</v>
       </c>
       <c r="M17">
-        <v>1.028164266744589</v>
+        <v>1.02851905413695</v>
       </c>
       <c r="N17">
-        <v>1.010698800325459</v>
+        <v>1.012939673719001</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.032004736806916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.032285191571063</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019456838597876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9936604310898547</v>
+        <v>0.9944819171581533</v>
       </c>
       <c r="D18">
-        <v>1.012486778693751</v>
+        <v>1.013144015411106</v>
       </c>
       <c r="E18">
-        <v>1.001863042262697</v>
+        <v>1.002591315962343</v>
       </c>
       <c r="F18">
-        <v>1.014032192338422</v>
+        <v>1.014383981078572</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039693955656137</v>
+        <v>1.040101687300218</v>
       </c>
       <c r="J18">
-        <v>1.020965097783611</v>
+        <v>1.021755024195073</v>
       </c>
       <c r="K18">
-        <v>1.026093399663305</v>
+        <v>1.026739658541083</v>
       </c>
       <c r="L18">
-        <v>1.015649694474377</v>
+        <v>1.016365469330295</v>
       </c>
       <c r="M18">
-        <v>1.027613029351417</v>
+        <v>1.027958962923561</v>
       </c>
       <c r="N18">
-        <v>1.010703482727554</v>
+        <v>1.01290001257624</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.031329316785444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.031602830497612</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019452669424686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9933166357776073</v>
+        <v>0.9941941711228925</v>
       </c>
       <c r="D19">
-        <v>1.012158727590938</v>
+        <v>1.012877699443761</v>
       </c>
       <c r="E19">
-        <v>1.001512896203281</v>
+        <v>1.002293236279742</v>
       </c>
       <c r="F19">
-        <v>1.01257244847296</v>
+        <v>1.012950171190367</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039434232768923</v>
+        <v>1.039877696794786</v>
       </c>
       <c r="J19">
-        <v>1.020498412903832</v>
+        <v>1.02134240273787</v>
       </c>
       <c r="K19">
-        <v>1.025707398932828</v>
+        <v>1.02641441698938</v>
       </c>
       <c r="L19">
-        <v>1.015241162573134</v>
+        <v>1.016008170953161</v>
       </c>
       <c r="M19">
-        <v>1.026114238523065</v>
+        <v>1.026485685015831</v>
       </c>
       <c r="N19">
-        <v>1.010486288164795</v>
+        <v>1.012736215251028</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.029815343869414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.030109127286481</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019341521208559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9904410212839792</v>
+        <v>0.9915952281320688</v>
       </c>
       <c r="D20">
-        <v>1.009998718686606</v>
+        <v>1.011024921599093</v>
       </c>
       <c r="E20">
-        <v>0.9991099924599391</v>
+        <v>1.000137638232043</v>
       </c>
       <c r="F20">
-        <v>1.00819705635872</v>
+        <v>1.008698863033764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038335187103272</v>
+        <v>1.038945335843791</v>
       </c>
       <c r="J20">
-        <v>1.018345464397558</v>
+        <v>1.019454028912501</v>
       </c>
       <c r="K20">
-        <v>1.023868002026011</v>
+        <v>1.024876642218183</v>
       </c>
       <c r="L20">
-        <v>1.013168509651163</v>
+        <v>1.014178067869189</v>
       </c>
       <c r="M20">
-        <v>1.022097285670076</v>
+        <v>1.022590458781778</v>
       </c>
       <c r="N20">
-        <v>1.009657559586006</v>
+        <v>1.012222357063141</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.026102274126981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.026492575527299</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018936069338189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9849735035649566</v>
+        <v>0.9866716171791982</v>
       </c>
       <c r="D21">
-        <v>1.006166790409613</v>
+        <v>1.007766326906002</v>
       </c>
       <c r="E21">
-        <v>0.9947976668435041</v>
+        <v>0.996307530236909</v>
       </c>
       <c r="F21">
-        <v>1.003926459887113</v>
+        <v>1.004666540586437</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036742822152591</v>
+        <v>1.037665660381211</v>
       </c>
       <c r="J21">
-        <v>1.01511319359522</v>
+        <v>1.016737359070499</v>
       </c>
       <c r="K21">
-        <v>1.021032265391257</v>
+        <v>1.022602042669267</v>
       </c>
       <c r="L21">
-        <v>1.009878273885596</v>
+        <v>1.011359196897474</v>
       </c>
       <c r="M21">
-        <v>1.018833824163988</v>
+        <v>1.019560039992617</v>
       </c>
       <c r="N21">
-        <v>1.008530847935553</v>
+        <v>1.011898865460245</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02347789314029</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.024052658039715</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018432647125573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9815206415871983</v>
+        <v>0.9835642952601684</v>
       </c>
       <c r="D22">
-        <v>1.003759544986231</v>
+        <v>1.005722449667731</v>
       </c>
       <c r="E22">
-        <v>0.9920893943626741</v>
+        <v>0.9939054683899521</v>
       </c>
       <c r="F22">
-        <v>1.001359397364491</v>
+        <v>1.002251002228461</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035742644391121</v>
+        <v>1.036863684269267</v>
       </c>
       <c r="J22">
-        <v>1.013093898577488</v>
+        <v>1.015043210216185</v>
       </c>
       <c r="K22">
-        <v>1.019256890659847</v>
+        <v>1.021181389746552</v>
       </c>
       <c r="L22">
-        <v>1.007819207801126</v>
+        <v>1.009598633736943</v>
       </c>
       <c r="M22">
-        <v>1.016903972343794</v>
+        <v>1.01777799782947</v>
       </c>
       <c r="N22">
-        <v>1.007830594912448</v>
+        <v>1.011698411173858</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.021950505870876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.022642256508058</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018119379527987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.983359034877988</v>
+        <v>0.9852015060050244</v>
       </c>
       <c r="D23">
-        <v>1.005040721294638</v>
+        <v>1.006795998975065</v>
       </c>
       <c r="E23">
-        <v>0.9935305776264804</v>
+        <v>0.9951676635795097</v>
       </c>
       <c r="F23">
-        <v>1.002724992652374</v>
+        <v>1.003528380676858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036275990915321</v>
+        <v>1.037282271341961</v>
       </c>
       <c r="J23">
-        <v>1.014169296890842</v>
+        <v>1.015929285821171</v>
       </c>
       <c r="K23">
-        <v>1.020202464439699</v>
+        <v>1.021924296728624</v>
       </c>
       <c r="L23">
-        <v>1.008915482347068</v>
+        <v>1.010520414803691</v>
       </c>
       <c r="M23">
-        <v>1.017931094694089</v>
+        <v>1.01871906307477</v>
       </c>
       <c r="N23">
-        <v>1.008203544850367</v>
+        <v>1.011760709981476</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022763425503195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.023387065213236</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018281898252589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9904242434760432</v>
+        <v>0.9915831009405494</v>
       </c>
       <c r="D24">
-        <v>1.009974985022434</v>
+        <v>1.011006503534002</v>
       </c>
       <c r="E24">
-        <v>0.9990856733650504</v>
+        <v>1.000117712167903</v>
       </c>
       <c r="F24">
-        <v>1.007998352723916</v>
+        <v>1.008502569523572</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038307425931524</v>
+        <v>1.038920683787317</v>
       </c>
       <c r="J24">
-        <v>1.018295953181138</v>
+        <v>1.019409047043824</v>
       </c>
       <c r="K24">
-        <v>1.023829164278187</v>
+        <v>1.024843050839867</v>
       </c>
       <c r="L24">
-        <v>1.013128864651914</v>
+        <v>1.014142760963965</v>
       </c>
       <c r="M24">
-        <v>1.021886449305994</v>
+        <v>1.022381997845958</v>
       </c>
       <c r="N24">
-        <v>1.009634155108479</v>
+        <v>1.01220159439701</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025893895844252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.026286097339593</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018923347757432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9982915803968085</v>
+        <v>0.9989225808762834</v>
       </c>
       <c r="D25">
-        <v>1.015488180574881</v>
+        <v>1.015901656918919</v>
       </c>
       <c r="E25">
-        <v>1.005302647565398</v>
+        <v>1.00587368888307</v>
       </c>
       <c r="F25">
-        <v>1.013919210891726</v>
+        <v>1.014193084755664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040530424435997</v>
+        <v>1.040826607232786</v>
       </c>
       <c r="J25">
-        <v>1.022876576782617</v>
+        <v>1.023486258956071</v>
       </c>
       <c r="K25">
-        <v>1.027850727803671</v>
+        <v>1.028258035319913</v>
       </c>
       <c r="L25">
-        <v>1.017819200707355</v>
+        <v>1.018381502582873</v>
       </c>
       <c r="M25">
-        <v>1.026305224481207</v>
+        <v>1.026574995483458</v>
       </c>
       <c r="N25">
-        <v>1.011220865966727</v>
+        <v>1.013272289965343</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029391124009867</v>
+        <v>1.029604632995983</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019680497055184</v>
       </c>
     </row>
   </sheetData>
